--- a/Kosten_AWO_Jubelaum.xlsx
+++ b/Kosten_AWO_Jubelaum.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t xml:space="preserve">Freitag </t>
   </si>
@@ -546,7 +546,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,10 +752,7 @@
         <v>7</v>
       </c>
       <c r="B24">
-        <v>228</v>
-      </c>
-      <c r="E24" t="s">
-        <v>43</v>
+        <v>225</v>
       </c>
       <c r="G24" t="s">
         <v>56</v>
@@ -882,7 +879,7 @@
       </c>
       <c r="B36" s="1">
         <f>SUM(B18:B35)</f>
-        <v>4539</v>
+        <v>4536</v>
       </c>
       <c r="C36" s="1">
         <f>SUM(C18:C35)</f>
@@ -890,7 +887,7 @@
       </c>
       <c r="D36" s="1">
         <f>C36-B36</f>
-        <v>-1447</v>
+        <v>-1444</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -992,7 +989,7 @@
       </c>
       <c r="B49" s="1">
         <f>SUM(B14,B36,B46)</f>
-        <v>7808</v>
+        <v>7805</v>
       </c>
       <c r="C49" s="1">
         <f>SUM(C14,C36,C46)</f>
@@ -1000,7 +997,7 @@
       </c>
       <c r="D49" s="1">
         <f>C49-B49</f>
-        <v>-2444</v>
+        <v>-2441</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">

--- a/Kosten_AWO_Jubelaum.xlsx
+++ b/Kosten_AWO_Jubelaum.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t xml:space="preserve">Freitag </t>
   </si>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,10 +600,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
@@ -674,7 +671,7 @@
       </c>
       <c r="B14" s="1">
         <f>SUM(B4:B13)</f>
-        <v>1279</v>
+        <v>1249</v>
       </c>
       <c r="C14" s="1">
         <f>SUM(C4:C13)</f>
@@ -682,7 +679,7 @@
       </c>
       <c r="D14" s="1">
         <f>C14-B14</f>
-        <v>-15</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -711,10 +708,7 @@
         <v>6</v>
       </c>
       <c r="B20">
-        <v>500</v>
-      </c>
-      <c r="E20" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -729,6 +723,9 @@
       <c r="A22" t="s">
         <v>4</v>
       </c>
+      <c r="B22">
+        <v>285</v>
+      </c>
       <c r="G22" t="s">
         <v>59</v>
       </c>
@@ -879,7 +876,7 @@
       </c>
       <c r="B36" s="1">
         <f>SUM(B18:B35)</f>
-        <v>4536</v>
+        <v>4359</v>
       </c>
       <c r="C36" s="1">
         <f>SUM(C18:C35)</f>
@@ -887,7 +884,7 @@
       </c>
       <c r="D36" s="1">
         <f>C36-B36</f>
-        <v>-1444</v>
+        <v>-1267</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -925,10 +922,7 @@
         <v>6</v>
       </c>
       <c r="B41">
-        <v>50</v>
-      </c>
-      <c r="E41" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -972,7 +966,7 @@
       </c>
       <c r="B46" s="1">
         <f>SUM(B39:B45)</f>
-        <v>1990</v>
+        <v>1960</v>
       </c>
       <c r="C46" s="1">
         <f>SUM(C39:C45)</f>
@@ -980,7 +974,7 @@
       </c>
       <c r="D46" s="1">
         <f>C46-B46</f>
-        <v>-982</v>
+        <v>-952</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -989,7 +983,7 @@
       </c>
       <c r="B49" s="1">
         <f>SUM(B14,B36,B46)</f>
-        <v>7805</v>
+        <v>7568</v>
       </c>
       <c r="C49" s="1">
         <f>SUM(C14,C36,C46)</f>
@@ -997,7 +991,7 @@
       </c>
       <c r="D49" s="1">
         <f>C49-B49</f>
-        <v>-2441</v>
+        <v>-2204</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
